--- a/Documents/画面設計書_部活動管理システムA05.xlsx
+++ b/Documents/画面設計書_部活動管理システムA05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\170394\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ookubo\Documents\jc21ps_2019\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{908363F1-6983-4FB2-997B-7E22BB043608}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E5F94C-C249-4EF0-9183-E160A3357C03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="5" xr2:uid="{D68D4521-B31D-4671-A1BE-B42047F1FCE3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="5" xr2:uid="{D68D4521-B31D-4671-A1BE-B42047F1FCE3}"/>
   </bookViews>
   <sheets>
     <sheet name="A00.ヘッダー" sheetId="2" r:id="rId1"/>
@@ -3079,34 +3079,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>部員登録申請もしていない（【部活マスタ】テーブルにデータがない)部活の部活名と部活説明を取得し、表示する。</t>
-    <rPh sb="14" eb="16">
-      <t>ブカツ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ブカツ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ブカツ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ブカツ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログインユーザーが部員として登録されていない（【部員】テーブルにデータがない)かつ</t>
     <rPh sb="9" eb="11">
       <t>ブイン</t>
@@ -3165,6 +3137,58 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ブカツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>部員登録申請もしていない（【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部活マスタ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】テーブルにデータがない)部活の部活名と部活説明を取得し、表示する。</t>
+    </r>
+    <rPh sb="14" eb="16">
+      <t>ブカツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ブカツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ブカツ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ブカツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3641,22 +3665,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3672,6 +3687,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3750,6 +3774,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3763,15 +3796,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3799,6 +3823,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3838,15 +3871,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16636,6 +16660,177 @@
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>585785</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="吹き出し: 四角形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A63BE2-1402-48A5-855A-2C7A1FAA3AC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638424" y="13182600"/>
+          <a:ext cx="4729161" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -55347"/>
+            <a:gd name="adj2" fmla="val -52642"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>惜しいです。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>部員登録申請するとどのテーブルにデータを登録しますか？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>もう一度見直してみましょう。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>そのテーブルにデータがない</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>部員登録申請をしていない</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>になります。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -20750,212 +20945,212 @@
       <selection activeCell="A10" sqref="A10:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="43"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="38"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="46">
         <v>43599</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="38"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="39">
         <v>1</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="43"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="38"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="38"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="43" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="38"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="38"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="43" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
@@ -20974,7 +21169,7 @@
       <c r="H20" s="53"/>
       <c r="I20" s="53"/>
     </row>
-    <row r="21" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
@@ -20993,7 +21188,7 @@
       <c r="H21" s="55"/>
       <c r="I21" s="55"/>
     </row>
-    <row r="22" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
@@ -21012,7 +21207,7 @@
       <c r="H22" s="54"/>
       <c r="I22" s="54"/>
     </row>
-    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
@@ -21031,7 +21226,7 @@
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
     </row>
-    <row r="24" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
@@ -21050,7 +21245,7 @@
       <c r="H24" s="56"/>
       <c r="I24" s="56"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="2"/>
     </row>
   </sheetData>
@@ -21070,11 +21265,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A10:I10"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G2:I2"/>
@@ -21082,6 +21272,11 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21098,252 +21293,252 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="43"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="38"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="46">
         <v>43599</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="38"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="39">
         <v>1</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="43"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="38"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="38"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="43" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="38"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="38"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="43" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A30" s="10" t="s">
         <v>45</v>
       </c>
@@ -21362,7 +21557,7 @@
       <c r="H30" s="53"/>
       <c r="I30" s="63"/>
     </row>
-    <row r="31" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="11" t="s">
         <v>12</v>
       </c>
@@ -21381,7 +21576,7 @@
       <c r="H31" s="57"/>
       <c r="I31" s="61"/>
     </row>
-    <row r="32" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="11" t="s">
         <v>9</v>
       </c>
@@ -21400,7 +21595,7 @@
       <c r="H32" s="57"/>
       <c r="I32" s="61"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="11" t="s">
         <v>6</v>
       </c>
@@ -21419,7 +21614,7 @@
       <c r="H33" s="58"/>
       <c r="I33" s="62"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A34" s="53" t="s">
         <v>54</v>
       </c>
@@ -21432,17 +21627,17 @@
       <c r="H34" s="53"/>
       <c r="I34" s="53"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="8" t="s">
         <v>55</v>
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A37" s="59" t="s">
         <v>56</v>
       </c>
@@ -21455,7 +21650,7 @@
       <c r="H37" s="59"/>
       <c r="I37" s="59"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
@@ -21468,7 +21663,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A39" s="14" t="s">
         <v>58</v>
       </c>
@@ -21477,7 +21672,7 @@
       <c r="D39" s="12"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A40" s="57" t="s">
         <v>59</v>
       </c>
@@ -21492,7 +21687,7 @@
       <c r="H40" s="58"/>
       <c r="I40" s="58"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A41" s="57" t="s">
         <v>61</v>
       </c>
@@ -21507,7 +21702,7 @@
       <c r="H41" s="58"/>
       <c r="I41" s="58"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A42" s="57" t="s">
         <v>63</v>
       </c>
@@ -21522,7 +21717,7 @@
       <c r="H42" s="58"/>
       <c r="I42" s="58"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A43" s="57" t="s">
         <v>65</v>
       </c>
@@ -21537,7 +21732,7 @@
       <c r="H43" s="58"/>
       <c r="I43" s="58"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A44" s="57" t="s">
         <v>67</v>
       </c>
@@ -21552,7 +21747,7 @@
       <c r="H44" s="58"/>
       <c r="I44" s="58"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A45" s="57" t="s">
         <v>69</v>
       </c>
@@ -21567,7 +21762,7 @@
       <c r="H45" s="58"/>
       <c r="I45" s="58"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A46" s="57" t="s">
         <v>71</v>
       </c>
@@ -21582,7 +21777,7 @@
       <c r="H46" s="58"/>
       <c r="I46" s="58"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A47" s="57" t="s">
         <v>73</v>
       </c>
@@ -21597,7 +21792,7 @@
       <c r="H47" s="58"/>
       <c r="I47" s="58"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A48" s="2"/>
     </row>
   </sheetData>
@@ -21661,324 +21856,324 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0EC94A-475E-4C78-AE06-E65E36305AD1}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A43" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A67" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="E50" sqref="E50:I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="43"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="38"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="46">
         <v>43599</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="38"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="39">
         <v>1</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="43"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="38"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="38"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="43" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="38"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="38"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="43" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A39" s="8"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A40" s="8"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A41" s="8"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A42" s="8"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A43" s="8"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A44" s="8"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A45" s="8"/>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A46" s="8"/>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A47" s="6" t="s">
         <v>16</v>
       </c>
@@ -21997,7 +22192,7 @@
       <c r="H47" s="53"/>
       <c r="I47" s="53"/>
     </row>
-    <row r="48" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A48" s="4" t="s">
         <v>12</v>
       </c>
@@ -22016,7 +22211,7 @@
       <c r="H48" s="55"/>
       <c r="I48" s="55"/>
     </row>
-    <row r="49" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
@@ -22035,7 +22230,7 @@
       <c r="H49" s="54"/>
       <c r="I49" s="54"/>
     </row>
-    <row r="50" spans="1:9" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" ht="42.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A50" s="4" t="s">
         <v>6</v>
       </c>
@@ -22054,7 +22249,7 @@
       <c r="H50" s="54"/>
       <c r="I50" s="54"/>
     </row>
-    <row r="51" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A51" s="4" t="s">
         <v>3</v>
       </c>
@@ -22073,7 +22268,7 @@
       <c r="H51" s="56"/>
       <c r="I51" s="56"/>
     </row>
-    <row r="52" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A52" s="4" t="s">
         <v>86</v>
       </c>
@@ -22092,7 +22287,7 @@
       <c r="H52" s="68"/>
       <c r="I52" s="68"/>
     </row>
-    <row r="53" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A53" s="4" t="s">
         <v>90</v>
       </c>
@@ -22111,7 +22306,7 @@
       <c r="H53" s="66"/>
       <c r="I53" s="67"/>
     </row>
-    <row r="54" spans="1:9" ht="46.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" ht="46.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A54" s="4" t="s">
         <v>93</v>
       </c>
@@ -22130,7 +22325,7 @@
       <c r="H54" s="66"/>
       <c r="I54" s="67"/>
     </row>
-    <row r="55" spans="1:9" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" ht="54.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A55" s="4" t="s">
         <v>96</v>
       </c>
@@ -22149,7 +22344,7 @@
       <c r="H55" s="66"/>
       <c r="I55" s="67"/>
     </row>
-    <row r="56" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A56" s="4" t="s">
         <v>99</v>
       </c>
@@ -22168,7 +22363,7 @@
       <c r="H56" s="66"/>
       <c r="I56" s="67"/>
     </row>
-    <row r="57" spans="1:9" ht="40.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" ht="40.35" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A57" s="4" t="s">
         <v>102</v>
       </c>
@@ -22187,7 +22382,7 @@
       <c r="H57" s="66"/>
       <c r="I57" s="67"/>
     </row>
-    <row r="58" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A58" s="4" t="s">
         <v>105</v>
       </c>
@@ -22206,7 +22401,7 @@
       <c r="H58" s="66"/>
       <c r="I58" s="67"/>
     </row>
-    <row r="59" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A59" s="4" t="s">
         <v>108</v>
       </c>
@@ -22225,7 +22420,7 @@
       <c r="H59" s="66"/>
       <c r="I59" s="67"/>
     </row>
-    <row r="60" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A60" s="4" t="s">
         <v>111</v>
       </c>
@@ -22244,7 +22439,7 @@
       <c r="H60" s="66"/>
       <c r="I60" s="67"/>
     </row>
-    <row r="61" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A61" s="4" t="s">
         <v>114</v>
       </c>
@@ -22263,7 +22458,7 @@
       <c r="H61" s="66"/>
       <c r="I61" s="67"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A62" s="51" t="s">
         <v>56</v>
       </c>
@@ -22276,13 +22471,13 @@
       <c r="H62" s="64"/>
       <c r="I62" s="52"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A63" s="8" t="s">
         <v>117</v>
       </c>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A64" s="15" t="s">
         <v>118</v>
       </c>
@@ -22291,7 +22486,7 @@
       <c r="D64" s="15"/>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A65" s="16" t="s">
         <v>119</v>
       </c>
@@ -22304,14 +22499,14 @@
       <c r="H65"/>
       <c r="I65"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A66" s="14"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="I66" s="7"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A67" s="15" t="s">
         <v>120</v>
       </c>
@@ -22324,7 +22519,7 @@
       <c r="H67"/>
       <c r="I67"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A68" s="15" t="s">
         <v>121</v>
       </c>
@@ -22337,7 +22532,7 @@
       <c r="H68"/>
       <c r="I68"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A69" s="15" t="s">
         <v>122</v>
       </c>
@@ -22350,7 +22545,7 @@
       <c r="H69"/>
       <c r="I69"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A70" s="15" t="s">
         <v>123</v>
       </c>
@@ -22363,7 +22558,7 @@
       <c r="H70"/>
       <c r="I70"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -22374,7 +22569,7 @@
       <c r="H71"/>
       <c r="I71"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A72" s="15" t="s">
         <v>106</v>
       </c>
@@ -22387,7 +22582,7 @@
       <c r="H72"/>
       <c r="I72"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A73" s="15" t="s">
         <v>124</v>
       </c>
@@ -22400,7 +22595,7 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -22411,7 +22606,7 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A75" s="15" t="s">
         <v>125</v>
       </c>
@@ -22424,7 +22619,7 @@
       <c r="H75"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A76" s="15" t="s">
         <v>126</v>
       </c>
@@ -22437,7 +22632,7 @@
       <c r="H76"/>
       <c r="I76"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -22448,7 +22643,7 @@
       <c r="H77"/>
       <c r="I77"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A78" s="15" t="s">
         <v>127</v>
       </c>
@@ -22461,7 +22656,7 @@
       <c r="H78"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A79" s="15" t="s">
         <v>128</v>
       </c>
@@ -22474,7 +22669,7 @@
       <c r="H79"/>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -22485,7 +22680,7 @@
       <c r="H80"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A81" s="2"/>
     </row>
   </sheetData>
@@ -22554,296 +22749,296 @@
       <selection activeCell="F64" sqref="F64:I64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="43"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="38"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="46">
         <v>43599</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="38"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="39">
         <v>1</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="43"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="38"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="38"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="43" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="38"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="38"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="43" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A39" s="8"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A40" s="8"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A41" s="6" t="s">
         <v>16</v>
       </c>
@@ -22866,7 +23061,7 @@
       <c r="H41" s="64"/>
       <c r="I41" s="52"/>
     </row>
-    <row r="42" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
@@ -22882,14 +23077,14 @@
       <c r="E42" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="74" t="s">
+      <c r="F42" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="76"/>
-    </row>
-    <row r="43" spans="1:9" ht="52.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="79"/>
+    </row>
+    <row r="43" spans="1:9" ht="52.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="4" t="s">
         <v>9</v>
       </c>
@@ -22905,14 +23100,14 @@
       <c r="E43" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F43" s="79" t="s">
+      <c r="F43" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="76"/>
-    </row>
-    <row r="44" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="79"/>
+    </row>
+    <row r="44" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A44" s="4" t="s">
         <v>6</v>
       </c>
@@ -22928,14 +23123,14 @@
       <c r="E44" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F44" s="79" t="s">
+      <c r="F44" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="76"/>
-    </row>
-    <row r="45" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="79"/>
+    </row>
+    <row r="45" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A45" s="4" t="s">
         <v>3</v>
       </c>
@@ -22951,14 +23146,14 @@
       <c r="E45" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F45" s="79" t="s">
+      <c r="F45" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="81"/>
-    </row>
-    <row r="46" spans="1:9" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="76"/>
+    </row>
+    <row r="46" spans="1:9" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A46" s="4" t="s">
         <v>86</v>
       </c>
@@ -22974,14 +23169,14 @@
       <c r="E46" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F46" s="79" t="s">
+      <c r="F46" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="81"/>
-    </row>
-    <row r="47" spans="1:9" ht="32.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="76"/>
+    </row>
+    <row r="47" spans="1:9" ht="32.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A47" s="4" t="s">
         <v>90</v>
       </c>
@@ -22997,14 +23192,14 @@
       <c r="E47" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F47" s="79" t="s">
+      <c r="F47" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="81"/>
-    </row>
-    <row r="48" spans="1:9" ht="36.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="76"/>
+    </row>
+    <row r="48" spans="1:9" ht="36.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A48" s="4" t="s">
         <v>93</v>
       </c>
@@ -23020,14 +23215,14 @@
       <c r="E48" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F48" s="79" t="s">
+      <c r="F48" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="81"/>
-    </row>
-    <row r="49" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="76"/>
+    </row>
+    <row r="49" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A49" s="4" t="s">
         <v>96</v>
       </c>
@@ -23043,14 +23238,14 @@
       <c r="E49" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F49" s="74" t="s">
+      <c r="F49" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="76"/>
-    </row>
-    <row r="50" spans="1:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="79"/>
+    </row>
+    <row r="50" spans="1:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A50" s="4" t="s">
         <v>99</v>
       </c>
@@ -23066,14 +23261,14 @@
       <c r="E50" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F50" s="74" t="s">
+      <c r="F50" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="76"/>
-    </row>
-    <row r="51" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="79"/>
+    </row>
+    <row r="51" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A51" s="4" t="s">
         <v>102</v>
       </c>
@@ -23089,14 +23284,14 @@
       <c r="E51" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F51" s="74" t="s">
+      <c r="F51" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="76"/>
-    </row>
-    <row r="52" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="79"/>
+    </row>
+    <row r="52" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A52" s="4" t="s">
         <v>105</v>
       </c>
@@ -23112,14 +23307,14 @@
       <c r="E52" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="74" t="s">
+      <c r="F52" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="76"/>
-    </row>
-    <row r="53" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
+      <c r="I52" s="79"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A53" s="19" t="s">
         <v>108</v>
       </c>
@@ -23135,14 +23330,14 @@
       <c r="E53" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="74" t="s">
+      <c r="F53" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="76"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="79"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A54" s="51" t="s">
         <v>157</v>
       </c>
@@ -23155,17 +23350,17 @@
       <c r="H54" s="64"/>
       <c r="I54" s="52"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A55" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C55" s="77" t="s">
+      <c r="C55" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="D55" s="78"/>
+      <c r="D55" s="81"/>
       <c r="E55" s="4" t="s">
         <v>160</v>
       </c>
@@ -23176,7 +23371,7 @@
       <c r="H55" s="68"/>
       <c r="I55" s="68"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A56" s="24" t="s">
         <v>6</v>
       </c>
@@ -23197,7 +23392,7 @@
       <c r="H56" s="68"/>
       <c r="I56" s="68"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A57" s="24" t="s">
         <v>86</v>
       </c>
@@ -23218,7 +23413,7 @@
       <c r="H57" s="68"/>
       <c r="I57" s="68"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A58" s="24" t="s">
         <v>90</v>
       </c>
@@ -23239,7 +23434,7 @@
       <c r="H58" s="68"/>
       <c r="I58" s="68"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A59" s="24" t="s">
         <v>93</v>
       </c>
@@ -23260,7 +23455,7 @@
       <c r="H59" s="68"/>
       <c r="I59" s="68"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A60" s="24" t="s">
         <v>96</v>
       </c>
@@ -23281,7 +23476,7 @@
       <c r="H60" s="68"/>
       <c r="I60" s="68"/>
     </row>
-    <row r="61" spans="1:9" ht="29.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" ht="29.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A61" s="24" t="s">
         <v>99</v>
       </c>
@@ -23302,7 +23497,7 @@
       <c r="H61" s="68"/>
       <c r="I61" s="68"/>
     </row>
-    <row r="62" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A62" s="24" t="s">
         <v>102</v>
       </c>
@@ -23323,7 +23518,7 @@
       <c r="H62" s="68"/>
       <c r="I62" s="68"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A63" s="51" t="s">
         <v>181</v>
       </c>
@@ -23336,7 +23531,7 @@
       <c r="H63" s="64"/>
       <c r="I63" s="52"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A64" s="26" t="s">
         <v>182</v>
       </c>
@@ -23353,7 +23548,7 @@
       <c r="H64" s="69"/>
       <c r="I64" s="69"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A65" s="70" t="s">
         <v>3</v>
       </c>
@@ -23370,7 +23565,7 @@
       <c r="H65" s="69"/>
       <c r="I65" s="69"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A66" s="71"/>
       <c r="B66" s="69" t="s">
         <v>187</v>
@@ -23385,7 +23580,7 @@
       <c r="H66" s="69"/>
       <c r="I66" s="69"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A67" s="70" t="s">
         <v>86</v>
       </c>
@@ -23402,7 +23597,7 @@
       <c r="H67" s="69"/>
       <c r="I67" s="69"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A68" s="71"/>
       <c r="B68" s="69" t="s">
         <v>190</v>
@@ -23417,7 +23612,7 @@
       <c r="H68" s="69"/>
       <c r="I68" s="69"/>
     </row>
-    <row r="69" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A69" s="71"/>
       <c r="B69" s="72" t="s">
         <v>192</v>
@@ -23432,7 +23627,7 @@
       <c r="H69" s="69"/>
       <c r="I69" s="69"/>
     </row>
-    <row r="70" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A70" s="73"/>
       <c r="B70" s="69" t="s">
         <v>194</v>
@@ -23447,7 +23642,7 @@
       <c r="H70" s="69"/>
       <c r="I70" s="69"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A71" s="70" t="s">
         <v>196</v>
       </c>
@@ -23464,7 +23659,7 @@
       <c r="H71" s="69"/>
       <c r="I71" s="69"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A72" s="71"/>
       <c r="B72" s="69" t="s">
         <v>190</v>
@@ -23479,7 +23674,7 @@
       <c r="H72" s="69"/>
       <c r="I72" s="69"/>
     </row>
-    <row r="73" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A73" s="71"/>
       <c r="B73" s="72" t="s">
         <v>192</v>
@@ -23494,7 +23689,7 @@
       <c r="H73" s="69"/>
       <c r="I73" s="69"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A74" s="70" t="s">
         <v>96</v>
       </c>
@@ -23511,7 +23706,7 @@
       <c r="H74" s="69"/>
       <c r="I74" s="69"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A75" s="71"/>
       <c r="B75" s="69" t="s">
         <v>187</v>
@@ -23526,7 +23721,7 @@
       <c r="H75" s="69"/>
       <c r="I75" s="69"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A76" s="70" t="s">
         <v>99</v>
       </c>
@@ -23543,7 +23738,7 @@
       <c r="H76" s="69"/>
       <c r="I76" s="69"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A77" s="71"/>
       <c r="B77" s="69" t="s">
         <v>194</v>
@@ -23558,7 +23753,7 @@
       <c r="H77" s="69"/>
       <c r="I77" s="69"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A78" s="24" t="s">
         <v>102</v>
       </c>
@@ -23676,276 +23871,276 @@
       <selection activeCell="D40" sqref="D40:I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="43"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="38"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="46">
         <v>43599</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="38"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="39">
         <v>1</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="43"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="38"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="38"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="43" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="38"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="38"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="43" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="6" t="s">
         <v>16</v>
       </c>
@@ -23964,7 +24159,7 @@
       <c r="H36" s="64"/>
       <c r="I36" s="52"/>
     </row>
-    <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
@@ -23974,16 +24169,16 @@
       <c r="C37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="77" t="s">
+      <c r="D37" s="80" t="s">
         <v>206</v>
       </c>
       <c r="E37" s="82"/>
       <c r="F37" s="82"/>
       <c r="G37" s="82"/>
       <c r="H37" s="82"/>
-      <c r="I37" s="78"/>
-    </row>
-    <row r="38" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I37" s="81"/>
+    </row>
+    <row r="38" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A38" s="4" t="s">
         <v>9</v>
       </c>
@@ -24000,9 +24195,9 @@
       <c r="F38" s="82"/>
       <c r="G38" s="82"/>
       <c r="H38" s="82"/>
-      <c r="I38" s="78"/>
-    </row>
-    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I38" s="81"/>
+    </row>
+    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
@@ -24019,7 +24214,7 @@
       <c r="H39" s="84"/>
       <c r="I39" s="85"/>
     </row>
-    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A40" s="4" t="s">
         <v>3</v>
       </c>
@@ -24036,7 +24231,7 @@
       <c r="H40" s="84"/>
       <c r="I40" s="85"/>
     </row>
-    <row r="41" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A41" s="4" t="s">
         <v>86</v>
       </c>
@@ -24046,16 +24241,16 @@
       <c r="C41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="77" t="s">
+      <c r="D41" s="80" t="s">
         <v>156</v>
       </c>
       <c r="E41" s="82"/>
       <c r="F41" s="82"/>
       <c r="G41" s="82"/>
       <c r="H41" s="82"/>
-      <c r="I41" s="78"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I41" s="81"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A42" s="51" t="s">
         <v>56</v>
       </c>
@@ -24068,32 +24263,32 @@
       <c r="H42" s="64"/>
       <c r="I42" s="52"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A43" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A44" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A46" s="27" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A47" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A48" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A49" s="1" t="s">
         <v>214</v>
       </c>
@@ -24136,292 +24331,292 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E404173-E494-49A5-91D0-06DCC8BD706D}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:I51"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="43"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="38"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="46">
         <v>43599</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="38"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="39">
         <v>1</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="43"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="38"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="38"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="43" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="38"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="38"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="43" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A27" s="28"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A39" s="29" t="s">
         <v>16</v>
       </c>
@@ -24440,7 +24635,7 @@
       <c r="H39" s="64"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A40" s="30" t="s">
         <v>12</v>
       </c>
@@ -24450,16 +24645,16 @@
       <c r="C40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="77" t="s">
+      <c r="D40" s="80" t="s">
         <v>225</v>
       </c>
       <c r="E40" s="82"/>
       <c r="F40" s="82"/>
       <c r="G40" s="82"/>
       <c r="H40" s="82"/>
-      <c r="I40" s="100"/>
-    </row>
-    <row r="41" spans="1:9" ht="38.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I40" s="103"/>
+    </row>
+    <row r="41" spans="1:9" ht="38.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A41" s="30" t="s">
         <v>9</v>
       </c>
@@ -24469,16 +24664,16 @@
       <c r="C41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="79" t="s">
+      <c r="D41" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="101"/>
-    </row>
-    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="104"/>
+    </row>
+    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A42" s="30" t="s">
         <v>6</v>
       </c>
@@ -24488,16 +24683,16 @@
       <c r="C42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="104" t="s">
-        <v>266</v>
-      </c>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="106"/>
-    </row>
-    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D42" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="93"/>
+    </row>
+    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="30" t="s">
         <v>3</v>
       </c>
@@ -24514,9 +24709,9 @@
       <c r="F43" s="66"/>
       <c r="G43" s="66"/>
       <c r="H43" s="66"/>
-      <c r="I43" s="91"/>
-    </row>
-    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I43" s="94"/>
+    </row>
+    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A44" s="30" t="s">
         <v>86</v>
       </c>
@@ -24526,16 +24721,16 @@
       <c r="C44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="104" t="s">
-        <v>267</v>
-      </c>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="106"/>
-    </row>
-    <row r="45" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D44" s="91" t="s">
+        <v>266</v>
+      </c>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="93"/>
+    </row>
+    <row r="45" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A45" s="30" t="s">
         <v>90</v>
       </c>
@@ -24552,9 +24747,9 @@
       <c r="F45" s="66"/>
       <c r="G45" s="66"/>
       <c r="H45" s="66"/>
-      <c r="I45" s="91"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I45" s="94"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A46" s="86" t="s">
         <v>157</v>
       </c>
@@ -24567,39 +24762,39 @@
       <c r="H46" s="64"/>
       <c r="I46" s="87"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" s="92" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A47" s="95" t="s">
         <v>221</v>
       </c>
-      <c r="B47" s="93"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="93"/>
-      <c r="H47" s="93"/>
-      <c r="I47" s="94"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="95" t="s">
+      <c r="B47" s="96"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="97"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A48" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="96"/>
-      <c r="C48" s="97" t="s">
+      <c r="B48" s="99"/>
+      <c r="C48" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="96"/>
+      <c r="D48" s="99"/>
       <c r="E48" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="98" t="s">
+      <c r="F48" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="98"/>
-      <c r="H48" s="98"/>
-      <c r="I48" s="99"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="102"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A49" s="88" t="s">
         <v>222</v>
       </c>
@@ -24612,13 +24807,13 @@
         <v>261</v>
       </c>
       <c r="F49" s="89" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G49" s="89"/>
       <c r="H49" s="89"/>
       <c r="I49" s="90"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A50" s="88" t="s">
         <v>222</v>
       </c>
@@ -24631,13 +24826,13 @@
         <v>262</v>
       </c>
       <c r="F50" s="89" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G50" s="89"/>
       <c r="H50" s="89"/>
       <c r="I50" s="90"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A51" s="86" t="s">
         <v>56</v>
       </c>
@@ -24650,29 +24845,29 @@
       <c r="H51" s="64"/>
       <c r="I51" s="87"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A52" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A53" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A55" s="27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A56" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A57" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -24729,284 +24924,284 @@
       <selection activeCell="F50" sqref="F50:I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="43"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="38"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="46">
         <v>43599</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="38"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="39">
         <v>1</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="43"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="38"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="38"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="43" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="38"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="38"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="43" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A29" s="33"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="33"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A38" s="6" t="s">
         <v>16</v>
       </c>
@@ -25025,7 +25220,7 @@
       <c r="H38" s="64"/>
       <c r="I38" s="52"/>
     </row>
-    <row r="39" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -25035,16 +25230,16 @@
       <c r="C39" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="77" t="s">
+      <c r="D39" s="80" t="s">
         <v>229</v>
       </c>
       <c r="E39" s="82"/>
       <c r="F39" s="82"/>
       <c r="G39" s="82"/>
       <c r="H39" s="82"/>
-      <c r="I39" s="78"/>
-    </row>
-    <row r="40" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I39" s="81"/>
+    </row>
+    <row r="40" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A40" s="4" t="s">
         <v>9</v>
       </c>
@@ -25063,7 +25258,7 @@
       <c r="H40" s="66"/>
       <c r="I40" s="67"/>
     </row>
-    <row r="41" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A41" s="4" t="s">
         <v>6</v>
       </c>
@@ -25082,7 +25277,7 @@
       <c r="H41" s="66"/>
       <c r="I41" s="67"/>
     </row>
-    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -25099,7 +25294,7 @@
       <c r="H42" s="84"/>
       <c r="I42" s="85"/>
     </row>
-    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="4" t="s">
         <v>86</v>
       </c>
@@ -25109,16 +25304,16 @@
       <c r="C43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="77" t="s">
+      <c r="D43" s="80" t="s">
         <v>233</v>
       </c>
       <c r="E43" s="82"/>
       <c r="F43" s="82"/>
       <c r="G43" s="82"/>
       <c r="H43" s="82"/>
-      <c r="I43" s="78"/>
-    </row>
-    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I43" s="81"/>
+    </row>
+    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A44" s="4" t="s">
         <v>90</v>
       </c>
@@ -25128,16 +25323,16 @@
       <c r="C44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="77" t="s">
+      <c r="D44" s="80" t="s">
         <v>235</v>
       </c>
       <c r="E44" s="82"/>
       <c r="F44" s="82"/>
       <c r="G44" s="82"/>
       <c r="H44" s="82"/>
-      <c r="I44" s="78"/>
-    </row>
-    <row r="45" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I44" s="81"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A45" s="4" t="s">
         <v>93</v>
       </c>
@@ -25156,7 +25351,7 @@
       <c r="H45" s="66"/>
       <c r="I45" s="67"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A46" s="51" t="s">
         <v>157</v>
       </c>
@@ -25169,7 +25364,7 @@
       <c r="H46" s="64"/>
       <c r="I46" s="52"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A47" s="34" t="s">
         <v>236</v>
       </c>
@@ -25182,71 +25377,71 @@
       <c r="H47" s="35"/>
       <c r="I47" s="36"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="97" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A48" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="96"/>
-      <c r="C48" s="97" t="s">
+      <c r="B48" s="99"/>
+      <c r="C48" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="96"/>
+      <c r="D48" s="99"/>
       <c r="E48" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="97" t="s">
+      <c r="F48" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="102"/>
-      <c r="H48" s="102"/>
-      <c r="I48" s="96"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="77" t="s">
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="99"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A49" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="B49" s="78"/>
-      <c r="C49" s="77" t="s">
+      <c r="B49" s="81"/>
+      <c r="C49" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="78"/>
+      <c r="D49" s="81"/>
       <c r="E49" s="37"/>
       <c r="F49" s="89"/>
       <c r="G49" s="89"/>
       <c r="H49" s="89"/>
       <c r="I49" s="89"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" s="77" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A50" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="B50" s="78"/>
-      <c r="C50" s="77" t="s">
+      <c r="B50" s="81"/>
+      <c r="C50" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="D50" s="78"/>
+      <c r="D50" s="81"/>
       <c r="E50" s="37"/>
       <c r="F50" s="89"/>
       <c r="G50" s="89"/>
       <c r="H50" s="89"/>
       <c r="I50" s="89"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="77" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A51" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="B51" s="78"/>
-      <c r="C51" s="77" t="s">
+      <c r="B51" s="81"/>
+      <c r="C51" s="80" t="s">
         <v>238</v>
       </c>
-      <c r="D51" s="78"/>
+      <c r="D51" s="81"/>
       <c r="E51" s="37"/>
       <c r="F51" s="89"/>
       <c r="G51" s="89"/>
       <c r="H51" s="89"/>
       <c r="I51" s="89"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A52" s="34" t="s">
         <v>239</v>
       </c>
@@ -25259,20 +25454,20 @@
       <c r="H52" s="35"/>
       <c r="I52" s="36"/>
     </row>
-    <row r="53" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="97" t="s">
+    <row r="53" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A53" s="100" t="s">
         <v>240</v>
       </c>
-      <c r="B53" s="102"/>
-      <c r="C53" s="102"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="102"/>
-      <c r="H53" s="102"/>
-      <c r="I53" s="96"/>
-    </row>
-    <row r="54" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="105"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="99"/>
+    </row>
+    <row r="54" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A54" s="65" t="s">
         <v>241</v>
       </c>
@@ -25283,9 +25478,9 @@
       <c r="F54" s="82"/>
       <c r="G54" s="82"/>
       <c r="H54" s="82"/>
-      <c r="I54" s="78"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I54" s="81"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A55" s="51" t="s">
         <v>56</v>
       </c>
@@ -25298,47 +25493,47 @@
       <c r="H55" s="64"/>
       <c r="I55" s="52"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A56" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A57" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A59" s="27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A60" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A62" s="27" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A63" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A64" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A66" s="27" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A67" s="1" t="s">
         <v>248</v>
       </c>
@@ -25402,288 +25597,288 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="43"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="38"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="46">
         <v>43599</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="38"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="39">
         <v>1</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="43"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="38"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="38"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="43" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="38"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="38"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="43" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A29" s="33"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A39" s="6" t="s">
         <v>16</v>
       </c>
@@ -25702,7 +25897,7 @@
       <c r="H39" s="64"/>
       <c r="I39" s="52"/>
     </row>
-    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
@@ -25712,16 +25907,16 @@
       <c r="C40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="77" t="s">
+      <c r="D40" s="80" t="s">
         <v>252</v>
       </c>
       <c r="E40" s="82"/>
       <c r="F40" s="82"/>
       <c r="G40" s="82"/>
       <c r="H40" s="82"/>
-      <c r="I40" s="78"/>
-    </row>
-    <row r="41" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I40" s="81"/>
+    </row>
+    <row r="41" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A41" s="4" t="s">
         <v>9</v>
       </c>
@@ -25740,7 +25935,7 @@
       <c r="H41" s="66"/>
       <c r="I41" s="67"/>
     </row>
-    <row r="42" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A42" s="4" t="s">
         <v>6</v>
       </c>
@@ -25759,7 +25954,7 @@
       <c r="H42" s="66"/>
       <c r="I42" s="67"/>
     </row>
-    <row r="43" spans="1:9" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="55.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="4" t="s">
         <v>3</v>
       </c>
@@ -25778,7 +25973,7 @@
       <c r="H43" s="66"/>
       <c r="I43" s="67"/>
     </row>
-    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A44" s="4" t="s">
         <v>86</v>
       </c>
@@ -25788,16 +25983,16 @@
       <c r="C44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="77" t="s">
+      <c r="D44" s="80" t="s">
         <v>254</v>
       </c>
       <c r="E44" s="82"/>
       <c r="F44" s="82"/>
       <c r="G44" s="82"/>
       <c r="H44" s="82"/>
-      <c r="I44" s="78"/>
-    </row>
-    <row r="45" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I44" s="81"/>
+    </row>
+    <row r="45" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A45" s="19" t="s">
         <v>90</v>
       </c>
@@ -25807,16 +26002,16 @@
       <c r="C45" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="77" t="s">
+      <c r="D45" s="80" t="s">
         <v>255</v>
       </c>
       <c r="E45" s="82"/>
       <c r="F45" s="82"/>
       <c r="G45" s="82"/>
       <c r="H45" s="82"/>
-      <c r="I45" s="78"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I45" s="81"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A46" s="51" t="s">
         <v>157</v>
       </c>
@@ -25829,17 +26024,17 @@
       <c r="H46" s="64"/>
       <c r="I46" s="52"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A47" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="77" t="s">
+      <c r="C47" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="78"/>
+      <c r="D47" s="81"/>
       <c r="E47" s="4" t="s">
         <v>160</v>
       </c>
@@ -25850,7 +26045,7 @@
       <c r="H47" s="68"/>
       <c r="I47" s="68"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A48" s="24" t="s">
         <v>6</v>
       </c>
@@ -25871,7 +26066,7 @@
       <c r="H48" s="68"/>
       <c r="I48" s="68"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A49" s="51" t="s">
         <v>259</v>
       </c>
@@ -25884,15 +26079,15 @@
       <c r="H49" s="64"/>
       <c r="I49" s="52"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="106"/>
       <c r="E50" s="50"/>
       <c r="F50" s="68" t="s">
         <v>60</v>
@@ -25901,15 +26096,15 @@
       <c r="H50" s="68"/>
       <c r="I50" s="68"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A51" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B51" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
       <c r="E51" s="50"/>
       <c r="F51" s="68" t="s">
         <v>260</v>
